--- a/SalaryManager.Domain/Template/Template_Payslip.xlsx
+++ b/SalaryManager.Domain/Template/Template_Payslip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OKAJIMA\source\repos\SalaryManager\SalaryManager.Domain\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234681CA-40A1-46EF-B47E-E446505C89CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F55D2CC-0205-446A-B082-E579659E199E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>基本給</t>
     <rPh sb="0" eb="3">
@@ -84,16 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>住宅手当</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウタク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テアテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遅刻早退欠勤</t>
     <rPh sb="0" eb="2">
       <t>チコク</t>
@@ -113,13 +103,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>テアテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予備</t>
-    <rPh sb="0" eb="2">
-      <t>ヨビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -192,19 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年末調整他</t>
-    <rPh sb="0" eb="2">
-      <t>ネンマツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ホカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>時間外時間</t>
     <rPh sb="0" eb="3">
       <t>ジカンガイ</t>
@@ -278,27 +248,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勤務時間</t>
+    <t>支給</t>
+    <rPh sb="0" eb="2">
+      <t>シキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>控除</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務備考</t>
     <rPh sb="0" eb="2">
       <t>キンム</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>支給</t>
-    <rPh sb="0" eb="2">
-      <t>シキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>控除</t>
-    <rPh sb="0" eb="2">
-      <t>コウジョ</t>
-    </rPh>
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副業など</t>
+    <rPh sb="0" eb="2">
+      <t>フクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副業</t>
+    <rPh sb="0" eb="2">
+      <t>フクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臨時収入</t>
+    <rPh sb="0" eb="2">
+      <t>リンジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差引合計</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務先</t>
+    <rPh sb="0" eb="3">
+      <t>キンムサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給与明細表　ver.2.0</t>
+    <rPh sb="0" eb="2">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住宅手当</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -309,91 +354,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勤務備考</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+    <t>在宅手当</t>
+    <rPh sb="0" eb="4">
+      <t>ザイタクテアテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予備</t>
+    <rPh sb="0" eb="2">
+      <t>ヨビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>副業など</t>
-    <rPh sb="0" eb="2">
-      <t>フクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>副業</t>
-    <rPh sb="0" eb="2">
-      <t>フクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>臨時収入</t>
-    <rPh sb="0" eb="2">
-      <t>リンジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>覚書</t>
-    <rPh sb="0" eb="2">
-      <t>オボエガキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合計</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>差引合計</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤務先</t>
-    <rPh sb="0" eb="3">
-      <t>キンムサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>給与明細表　ver.2.0</t>
-    <rPh sb="0" eb="2">
-      <t>キュウヨ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒョウ</t>
-    </rPh>
+    <t>年末調整他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準月額千円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -668,6 +658,16 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,24 +686,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1014,252 +1004,282 @@
     <col min="5" max="6" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.09765625" style="1" customWidth="1"/>
     <col min="32" max="32" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="39.59765625" style="1" customWidth="1"/>
-    <col min="35" max="37" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="1"/>
+    <col min="33" max="33" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.8984375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="39.59765625" style="1" customWidth="1"/>
+    <col min="40" max="42" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="22.2">
+      <c r="B3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="19"/>
+    </row>
+    <row r="4" spans="1:43" s="4" customFormat="1" ht="24" customHeight="1">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="Y4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" ht="22.2">
-      <c r="B3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="15"/>
-    </row>
-    <row r="4" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" ht="19.8">
+    <row r="5" spans="1:43" s="2" customFormat="1" ht="19.8">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23">
-        <f>AE5+AF5+AG5</f>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14">
+        <f>AJ5+AK5+AL5</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="23">
-        <f>AI5-AJ5+AK5</f>
+      <c r="AQ5" s="14">
+        <f>AN5-AO5+AP5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="Q3:Y3"/>
+    <mergeCell ref="Z3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SalaryManager.Domain/Template/Template_Payslip.xlsx
+++ b/SalaryManager.Domain/Template/Template_Payslip.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OKAJIMA\source\repos\SalaryManager\SalaryManager.Domain\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F55D2CC-0205-446A-B082-E579659E199E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44BA4F2-C6AC-41BD-B0AD-AF6F4D3A353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="収支推移" sheetId="2" r:id="rId1"/>
+    <sheet name="給与明細" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>基本給</t>
     <rPh sb="0" eb="3">
@@ -385,15 +386,42 @@
   <si>
     <t>勤務時間</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月</t>
+  </si>
+  <si>
+    <t>勤務先</t>
+  </si>
+  <si>
+    <t>支給</t>
+  </si>
+  <si>
+    <t>控除</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差引合計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副業</t>
+    <rPh sb="0" eb="2">
+      <t>フクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給与明細表　ver.2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -412,52 +440,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5" tint="-0.499984740745262"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -468,6 +451,51 @@
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -629,70 +657,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -988,11 +1013,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601E4F11-3E57-4E78-B04D-3A6359914ACA}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1039,234 +1111,234 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="22.2">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:43">
+      <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="24" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="16" t="s">
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="17" t="s">
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="19"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="18"/>
     </row>
-    <row r="4" spans="1:43" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="15" t="s">
+    <row r="4" spans="1:43" s="3" customFormat="1" ht="24" customHeight="1">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AG4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AH4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AI4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AK4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AL4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AM4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AN4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AO4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AP4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AQ4" s="5" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="2" customFormat="1" ht="19.8">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14">
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13">
         <f>AJ5+AK5+AL5</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="14">
+      <c r="AQ5" s="13">
         <f>AN5-AO5+AP5</f>
         <v>0</v>
       </c>

--- a/SalaryManager.Domain/Template/Template_Payslip.xlsx
+++ b/SalaryManager.Domain/Template/Template_Payslip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OKAJIMA\source\repos\SalaryManager\SalaryManager.Domain\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44BA4F2-C6AC-41BD-B0AD-AF6F4D3A353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C197C7-67E5-4216-9369-831236674409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="収支推移" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>基本給</t>
     <rPh sb="0" eb="3">
@@ -416,6 +416,16 @@
   </si>
   <si>
     <t>給与明細表　ver.2.0</t>
+  </si>
+  <si>
+    <t>前払退職金</t>
+    <rPh sb="0" eb="2">
+      <t>マエバラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タイショクキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1016,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601E4F11-3E57-4E78-B04D-3A6359914ACA}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1060,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1081,37 +1091,38 @@
     <col min="11" max="11" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.09765625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.8984375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="39.59765625" style="1" customWidth="1"/>
-    <col min="40" max="42" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="1"/>
+    <col min="15" max="15" width="9.69921875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.09765625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.8984375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="39.59765625" style="1" customWidth="1"/>
+    <col min="41" max="43" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44">
       <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
@@ -1133,10 +1144,10 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="21"/>
+      <c r="R3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
       <c r="U3" s="22"/>
@@ -1144,10 +1155,10 @@
       <c r="W3" s="22"/>
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="23"/>
       <c r="AB3" s="23"/>
       <c r="AC3" s="23"/>
       <c r="AD3" s="23"/>
@@ -1156,20 +1167,21 @@
       <c r="AG3" s="23"/>
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
-      <c r="AJ3" s="15" t="s">
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
       <c r="AM3" s="15"/>
-      <c r="AN3" s="16" t="s">
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="17"/>
       <c r="AP3" s="17"/>
-      <c r="AQ3" s="18"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="18"/>
     </row>
-    <row r="4" spans="1:43" s="3" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="1:44" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="4" t="s">
@@ -1206,94 +1218,97 @@
         <v>7</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AH4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AI4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AR4" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="2" customFormat="1" ht="19.8">
+    <row r="5" spans="1:44" s="2" customFormat="1" ht="19.8">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
@@ -1334,24 +1349,31 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="13"/>
-      <c r="AP5" s="13">
-        <f>AJ5+AK5+AL5</f>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13">
+        <f>AK5+AL5+AM5</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="13">
-        <f>AN5-AO5+AP5</f>
+      <c r="AR5" s="13">
+        <f>AO5-AP5+AQ5</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="Q6" s="1">
+        <f>COLUMN()</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="Q3:Y3"/>
-    <mergeCell ref="Z3:AI3"/>
+    <mergeCell ref="D3:Q3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="AA3:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
